--- a/common-util/src/test/resources/Data11.xlsx
+++ b/common-util/src/test/resources/Data11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="T_Users" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="504">
   <si>
     <t>ID</t>
   </si>
@@ -1286,309 +1286,312 @@
     <t>安全大数据分析安全大数据智能项目</t>
   </si>
   <si>
-    <t>b94da22a-4883-41d2-9bcc-f9da2786fdad</t>
-  </si>
-  <si>
-    <t>fd6f1b33-2140-4d2f-8ea0-85039e334415</t>
-  </si>
-  <si>
-    <t>c7db0c3e-1af8-433c-a752-91199d78e31a</t>
-  </si>
-  <si>
-    <t>cbb8308e-0c40-4e5a-bbdd-437d3541043e</t>
-  </si>
-  <si>
-    <t>80b1b521-e12e-47a5-a790-8caea6711a5f</t>
-  </si>
-  <si>
-    <t>c3d511df-6340-4bc3-9415-72f2d21a9e00</t>
-  </si>
-  <si>
-    <t>3e69f255-9dc0-4fe7-926c-63f2d4cfb97f</t>
-  </si>
-  <si>
-    <t>f9c690ed-dc05-4892-a094-9d797f6fa68a</t>
-  </si>
-  <si>
-    <t>fd004771-0576-4a35-85a4-5e12c10f521f</t>
-  </si>
-  <si>
-    <t>5002aaed-1dbd-465c-9486-b717276dec36</t>
-  </si>
-  <si>
-    <t>37ae6edd-050b-46ae-90c0-184217dc14ed</t>
-  </si>
-  <si>
-    <t>99836ae7-da7b-483c-b85d-fcf7ea8fddac</t>
-  </si>
-  <si>
-    <t>1d29e0eb-6961-44d2-a369-c81fac9dc278</t>
-  </si>
-  <si>
-    <t>ea1c35af-b5de-49e1-85b6-5c688c5a7b57</t>
-  </si>
-  <si>
-    <t>e0bb33a6-849b-4c16-8067-9fb6b4ad368b</t>
-  </si>
-  <si>
-    <t>6cd5865c-36a6-4f0c-b0de-86aa6c2819cd</t>
-  </si>
-  <si>
-    <t>bc477c74-a1bd-4c41-8b14-46001ddf01c1</t>
-  </si>
-  <si>
-    <t>c7587273-1bbd-4f39-8750-78ec2ad7fa79</t>
-  </si>
-  <si>
-    <t>b4b20158-e0ef-4071-8c9b-26b6fbc8b335</t>
-  </si>
-  <si>
-    <t>d7b18283-cf29-4c17-b8db-40cc6e2bc415</t>
-  </si>
-  <si>
-    <t>c8c200a2-6aca-4268-bc7f-edc6ad045100</t>
-  </si>
-  <si>
-    <t>ce404b7a-5191-4966-bd7b-0bc8707e725e</t>
-  </si>
-  <si>
-    <t>9a965286-2d55-4a85-b8e0-eed7515fb2a3</t>
-  </si>
-  <si>
-    <t>966925bc-d700-47f1-aaef-72300189a467</t>
-  </si>
-  <si>
-    <t>a38a8ee7-2a9a-4990-89ec-fefc61ca8073</t>
-  </si>
-  <si>
-    <t>a6838bb7-715a-4862-98e5-bac777e61676</t>
-  </si>
-  <si>
-    <t>80dc0a26-5f13-4170-99c8-5a45f9432e7d</t>
-  </si>
-  <si>
-    <t>713afb7b-7a34-4184-be7f-ba97ee8f3294</t>
-  </si>
-  <si>
-    <t>72ba1e30-9d6c-4caa-93df-284400595e74</t>
-  </si>
-  <si>
-    <t>7b09af72-7c23-4b22-bb15-2b347c8a2125</t>
-  </si>
-  <si>
-    <t>7b98a913-3d10-4994-9ca1-d4774b808d30</t>
-  </si>
-  <si>
-    <t>89cbdf75-b4d9-4950-9445-06a21b906bb3</t>
-  </si>
-  <si>
-    <t>376651ce-ab38-4631-8aa5-cfeb1f1f9e03</t>
-  </si>
-  <si>
-    <t>45d0601b-3de0-4f46-b274-ef946b57d7e9</t>
-  </si>
-  <si>
-    <t>1e5be2ee-e4b9-4c55-aa85-29ea6651298b</t>
-  </si>
-  <si>
-    <t>322d0a17-f05e-49dd-bbe7-22ad16bdb6f4</t>
-  </si>
-  <si>
-    <t>0aff0f25-690b-4c05-93ab-a988412e9283</t>
-  </si>
-  <si>
-    <t>0fb3e9be-bded-4ccf-8358-26c06aa06157</t>
-  </si>
-  <si>
-    <t>1323443c-cd63-4d63-890c-ce05492e3afe</t>
-  </si>
-  <si>
-    <t>e14f1c1e-9e50-44fd-ae6a-a6ba5f957207</t>
-  </si>
-  <si>
-    <t>eee77103-23b5-480d-a567-586e6302fbca</t>
-  </si>
-  <si>
-    <t>f07cbfd2-6499-4914-9aa2-f3ce9e41d091</t>
-  </si>
-  <si>
-    <t>f17b951a-272e-4740-a13e-0f429705626c</t>
-  </si>
-  <si>
-    <t>f4fabb90-0598-4d89-b03a-bbd362ecc4e7</t>
-  </si>
-  <si>
-    <t>f944a9bf-3571-4b9f-9c38-5972a967d474</t>
-  </si>
-  <si>
-    <t>c272f66d-dc0c-4f6b-9ef7-ac4a63897ffa</t>
-  </si>
-  <si>
-    <t>bde3a966-4fda-44a6-b057-c5971988db2c</t>
-  </si>
-  <si>
-    <t>a793d808-f16b-4b93-85aa-37ba57d52532</t>
-  </si>
-  <si>
-    <t>8897a72d-df2f-400a-9c19-1374e3501382</t>
-  </si>
-  <si>
-    <t>878af8d6-56ca-46a7-844c-ec1eb6f62ebe</t>
-  </si>
-  <si>
-    <t>779684ca-e8d3-4071-af7e-abe88d48cd7c</t>
-  </si>
-  <si>
-    <t>7d218542-53d7-49f8-9610-e91c11b0d6c0</t>
-  </si>
-  <si>
-    <t>15107620-8c92-4b3d-be44-98877c5077c2</t>
-  </si>
-  <si>
-    <t>05c8f24d-c953-4253-a04f-5e5d66f8f61a</t>
-  </si>
-  <si>
-    <t>5c72c3ec-7fad-405d-95d3-5540aecc4181</t>
-  </si>
-  <si>
-    <t>0e0f7028-8836-4d53-8b6f-06e89b0ae45a</t>
-  </si>
-  <si>
-    <t>274a7030-3fd4-4d97-9e0d-ceb1d0b643a1</t>
-  </si>
-  <si>
-    <t>1c3e561c-341c-4280-8243-9a4c46b26c1e</t>
-  </si>
-  <si>
-    <t>c1197a3f-a4d6-428d-a439-e857e083ec09</t>
-  </si>
-  <si>
-    <t>a6550d9a-c5bf-4675-9b5c-8d223531ed2d</t>
-  </si>
-  <si>
-    <t>914d2e95-2d5c-46b0-a0d0-96f334f2234c</t>
-  </si>
-  <si>
-    <t>18a4bbb7-21f8-489a-b11f-0a9531078934</t>
-  </si>
-  <si>
-    <t>0fd785f4-7413-4f12-a766-dd9521eafe87</t>
-  </si>
-  <si>
-    <t>6be8d920-b4a9-4169-8758-f7cb17cf1477</t>
-  </si>
-  <si>
-    <t>4bc3c6e2-172b-45a3-b1e3-f48f95785c54</t>
-  </si>
-  <si>
-    <t>5cdbee3e-22dc-4f82-9b25-215cb451c3d4</t>
-  </si>
-  <si>
-    <t>52d2bbab-8f8b-4dbb-88a3-2b6c3fa351bd</t>
-  </si>
-  <si>
-    <t>06be0ba6-cf90-4b58-ba9e-d66afd2eec23</t>
-  </si>
-  <si>
-    <t>080e5aee-8677-460d-961c-4af31b6fb794</t>
-  </si>
-  <si>
-    <t>09b81a1d-b362-42af-aaec-2653fd59b68c</t>
-  </si>
-  <si>
-    <t>2cf07cbf-71ae-4050-9d63-ac33638917f7</t>
-  </si>
-  <si>
-    <t>ab5553fe-6e90-4775-8a7b-830f27458b78</t>
-  </si>
-  <si>
-    <t>d24bada1-76a5-4a2b-8a6d-c5edd1f59afc</t>
-  </si>
-  <si>
-    <t>ddf9a6cf-6596-4aa0-ae93-d8a993747b13</t>
-  </si>
-  <si>
-    <t>8323ea32-90f9-4b5b-bf06-1e502e01841c</t>
-  </si>
-  <si>
-    <t>cff8876d-4870-42d0-82a0-f76a8b10bf6c</t>
-  </si>
-  <si>
-    <t>6884be77-3724-4369-b485-1c1c605ef974</t>
-  </si>
-  <si>
-    <t>5e5a28cc-8971-47bc-a476-3366ccadb7c8</t>
-  </si>
-  <si>
-    <t>1cf0aec3-3ac1-42ce-a450-58f38eee7cd9</t>
-  </si>
-  <si>
-    <t>09b02e27-9552-4040-ab40-8fbe24dfe0a5</t>
-  </si>
-  <si>
-    <t>b35418f6-abe3-4eb7-8d78-852210a37841</t>
-  </si>
-  <si>
-    <t>c423bad5-b3fe-40f7-be39-e673c9c21382</t>
-  </si>
-  <si>
-    <t>840f2d26-dad4-4d37-aeb3-3c0b7e24302a</t>
-  </si>
-  <si>
-    <t>a432302e-09e3-4985-b12b-b4b0df161c46</t>
-  </si>
-  <si>
-    <t>fb4320f2-378e-4bf1-a9b1-dd862ebe83cb</t>
-  </si>
-  <si>
-    <t>ed50ea6f-b6a3-4967-9e4b-0eb2c45b1160</t>
-  </si>
-  <si>
-    <t>7e83101a-915d-41b3-b8de-1794ea7b7d01</t>
-  </si>
-  <si>
-    <t>c8de86c0-3519-4f12-81c5-2a0dcf3ef6a4</t>
-  </si>
-  <si>
-    <t>fda9a985-48b4-404d-b4c7-582c89e4f41b</t>
-  </si>
-  <si>
-    <t>99512b01-f25f-4bed-99d6-e61b87051ac2</t>
-  </si>
-  <si>
-    <t>2757a7d8-4dc8-430a-aebb-458b527ed969</t>
-  </si>
-  <si>
-    <t>6bb85281-01ba-439e-bd4f-8ba0bde9da70</t>
-  </si>
-  <si>
-    <t>2fc4f488-f02d-495f-88f2-656e657c4ec4</t>
-  </si>
-  <si>
-    <t>18adb46a-0ff6-4400-b61a-cbe6785f464a</t>
-  </si>
-  <si>
-    <t>1ecbd717-351a-4b3a-a14f-cdb17f452b17</t>
-  </si>
-  <si>
-    <t>06f893ab-8531-41b7-b8b5-4ccea610b004</t>
-  </si>
-  <si>
-    <t>093d9430-35c0-4cc7-a6e8-44f825c0d2ea</t>
-  </si>
-  <si>
-    <t>17781840-5d1f-4b45-b251-2804994839b5</t>
-  </si>
-  <si>
-    <t>6ce34925-0cce-4165-8589-6638d99f67ba</t>
-  </si>
-  <si>
     <t>Enp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TM</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi00-b94da22a-4883-41d2-9bcc-f9da2786fdad</t>
+  </si>
+  <si>
+    <t>bi01-fd6f1b33-2140-4d2f-8ea0-85039e334415</t>
+  </si>
+  <si>
+    <t>bi02-c7db0c3e-1af8-433c-a752-91199d78e31a</t>
+  </si>
+  <si>
+    <t>bi03-cbb8308e-0c40-4e5a-bbdd-437d3541043e</t>
+  </si>
+  <si>
+    <t>bi04-80b1b521-e12e-47a5-a790-8caea6711a5f</t>
+  </si>
+  <si>
+    <t>bi05-c3d511df-6340-4bc3-9415-72f2d21a9e00</t>
+  </si>
+  <si>
+    <t>bi06-3e69f255-9dc0-4fe7-926c-63f2d4cfb97f</t>
+  </si>
+  <si>
+    <t>bi07-f9c690ed-dc05-4892-a094-9d797f6fa68a</t>
+  </si>
+  <si>
+    <t>bi08-fd004771-0576-4a35-85a4-5e12c10f521f</t>
+  </si>
+  <si>
+    <t>bi09-5002aaed-1dbd-465c-9486-b717276dec36</t>
+  </si>
+  <si>
+    <t>bi10-37ae6edd-050b-46ae-90c0-184217dc14ed</t>
+  </si>
+  <si>
+    <t>bi11-99836ae7-da7b-483c-b85d-fcf7ea8fddac</t>
+  </si>
+  <si>
+    <t>bi12-1d29e0eb-6961-44d2-a369-c81fac9dc278</t>
+  </si>
+  <si>
+    <t>bi13-ea1c35af-b5de-49e1-85b6-5c688c5a7b57</t>
+  </si>
+  <si>
+    <t>bi14-e0bb33a6-849b-4c16-8067-9fb6b4ad368b</t>
+  </si>
+  <si>
+    <t>bi15-6cd5865c-36a6-4f0c-b0de-86aa6c2819cd</t>
+  </si>
+  <si>
+    <t>bi16-bc477c74-a1bd-4c41-8b14-46001ddf01c1</t>
+  </si>
+  <si>
+    <t>bi17-c7587273-1bbd-4f39-8750-78ec2ad7fa79</t>
+  </si>
+  <si>
+    <t>bi18-b4b20158-e0ef-4071-8c9b-26b6fbc8b335</t>
+  </si>
+  <si>
+    <t>bi19-d7b18283-cf29-4c17-b8db-40cc6e2bc415</t>
+  </si>
+  <si>
+    <t>bi20-c8c200a2-6aca-4268-bc7f-edc6ad045100</t>
+  </si>
+  <si>
+    <t>bi21-ce404b7a-5191-4966-bd7b-0bc8707e725e</t>
+  </si>
+  <si>
+    <t>bi22-9a965286-2d55-4a85-b8e0-eed7515fb2a3</t>
+  </si>
+  <si>
+    <t>bi23-966925bc-d700-47f1-aaef-72300189a467</t>
+  </si>
+  <si>
+    <t>bi24-a38a8ee7-2a9a-4990-89ec-fefc61ca8073</t>
+  </si>
+  <si>
+    <t>bi25-a6838bb7-715a-4862-98e5-bac777e61676</t>
+  </si>
+  <si>
+    <t>bi26-80dc0a26-5f13-4170-99c8-5a45f9432e7d</t>
+  </si>
+  <si>
+    <t>bi27-713afb7b-7a34-4184-be7f-ba97ee8f3294</t>
+  </si>
+  <si>
+    <t>bi28-72ba1e30-9d6c-4caa-93df-284400595e74</t>
+  </si>
+  <si>
+    <t>bi29-7b09af72-7c23-4b22-bb15-2b347c8a2125</t>
+  </si>
+  <si>
+    <t>bi30-7b98a913-3d10-4994-9ca1-d4774b808d30</t>
+  </si>
+  <si>
+    <t>bi31-89cbdf75-b4d9-4950-9445-06a21b906bb3</t>
+  </si>
+  <si>
+    <t>bi32-376651ce-ab38-4631-8aa5-cfeb1f1f9e03</t>
+  </si>
+  <si>
+    <t>bi33-45d0601b-3de0-4f46-b274-ef946b57d7e9</t>
+  </si>
+  <si>
+    <t>bi34-1e5be2ee-e4b9-4c55-aa85-29ea6651298b</t>
+  </si>
+  <si>
+    <t>bi35-322d0a17-f05e-49dd-bbe7-22ad16bdb6f4</t>
+  </si>
+  <si>
+    <t>bi36-0aff0f25-690b-4c05-93ab-a988412e9283</t>
+  </si>
+  <si>
+    <t>bi37-0fb3e9be-bded-4ccf-8358-26c06aa06157</t>
+  </si>
+  <si>
+    <t>bi38-1323443c-cd63-4d63-890c-ce05492e3afe</t>
+  </si>
+  <si>
+    <t>bi39-e14f1c1e-9e50-44fd-ae6a-a6ba5f957207</t>
+  </si>
+  <si>
+    <t>bi40-eee77103-23b5-480d-a567-586e6302fbca</t>
+  </si>
+  <si>
+    <t>bi41-f07cbfd2-6499-4914-9aa2-f3ce9e41d091</t>
+  </si>
+  <si>
+    <t>bi42-f17b951a-272e-4740-a13e-0f429705626c</t>
+  </si>
+  <si>
+    <t>bi43-f4fabb90-0598-4d89-b03a-bbd362ecc4e7</t>
+  </si>
+  <si>
+    <t>bi44-f944a9bf-3571-4b9f-9c38-5972a967d474</t>
+  </si>
+  <si>
+    <t>bi45-c272f66d-dc0c-4f6b-9ef7-ac4a63897ffa</t>
+  </si>
+  <si>
+    <t>bi46-bde3a966-4fda-44a6-b057-c5971988db2c</t>
+  </si>
+  <si>
+    <t>bi47-a793d808-f16b-4b93-85aa-37ba57d52532</t>
+  </si>
+  <si>
+    <t>bi48-8897a72d-df2f-400a-9c19-1374e3501382</t>
+  </si>
+  <si>
+    <t>bi49-878af8d6-56ca-46a7-844c-ec1eb6f62ebe</t>
+  </si>
+  <si>
+    <t>bi50-779684ca-e8d3-4071-af7e-abe88d48cd7c</t>
+  </si>
+  <si>
+    <t>bi51-7d218542-53d7-49f8-9610-e91c11b0d6c0</t>
+  </si>
+  <si>
+    <t>bi52-15107620-8c92-4b3d-be44-98877c5077c2</t>
+  </si>
+  <si>
+    <t>bi53-05c8f24d-c953-4253-a04f-5e5d66f8f61a</t>
+  </si>
+  <si>
+    <t>bi54-5c72c3ec-7fad-405d-95d3-5540aecc4181</t>
+  </si>
+  <si>
+    <t>bi55-0e0f7028-8836-4d53-8b6f-06e89b0ae45a</t>
+  </si>
+  <si>
+    <t>bi56-274a7030-3fd4-4d97-9e0d-ceb1d0b643a1</t>
+  </si>
+  <si>
+    <t>bi57-1c3e561c-341c-4280-8243-9a4c46b26c1e</t>
+  </si>
+  <si>
+    <t>bi58-c1197a3f-a4d6-428d-a439-e857e083ec09</t>
+  </si>
+  <si>
+    <t>bi59-a6550d9a-c5bf-4675-9b5c-8d223531ed2d</t>
+  </si>
+  <si>
+    <t>bi60-914d2e95-2d5c-46b0-a0d0-96f334f2234c</t>
+  </si>
+  <si>
+    <t>bi61-18a4bbb7-21f8-489a-b11f-0a9531078934</t>
+  </si>
+  <si>
+    <t>bi62-0fd785f4-7413-4f12-a766-dd9521eafe87</t>
+  </si>
+  <si>
+    <t>bi63-6be8d920-b4a9-4169-8758-f7cb17cf1477</t>
+  </si>
+  <si>
+    <t>bi64-4bc3c6e2-172b-45a3-b1e3-f48f95785c54</t>
+  </si>
+  <si>
+    <t>bi65-5cdbee3e-22dc-4f82-9b25-215cb451c3d4</t>
+  </si>
+  <si>
+    <t>bi66-52d2bbab-8f8b-4dbb-88a3-2b6c3fa351bd</t>
+  </si>
+  <si>
+    <t>bi67-06be0ba6-cf90-4b58-ba9e-d66afd2eec23</t>
+  </si>
+  <si>
+    <t>bi68-080e5aee-8677-460d-961c-4af31b6fb794</t>
+  </si>
+  <si>
+    <t>bi69-09b81a1d-b362-42af-aaec-2653fd59b68c</t>
+  </si>
+  <si>
+    <t>bi70-2cf07cbf-71ae-4050-9d63-ac33638917f7</t>
+  </si>
+  <si>
+    <t>bi71-ab5553fe-6e90-4775-8a7b-830f27458b78</t>
+  </si>
+  <si>
+    <t>bi72-d24bada1-76a5-4a2b-8a6d-c5edd1f59afc</t>
+  </si>
+  <si>
+    <t>bi73-ddf9a6cf-6596-4aa0-ae93-d8a993747b13</t>
+  </si>
+  <si>
+    <t>bi74-8323ea32-90f9-4b5b-bf06-1e502e01841c</t>
+  </si>
+  <si>
+    <t>bi75-cff8876d-4870-42d0-82a0-f76a8b10bf6c</t>
+  </si>
+  <si>
+    <t>bi76-6884be77-3724-4369-b485-1c1c605ef974</t>
+  </si>
+  <si>
+    <t>bi77-5e5a28cc-8971-47bc-a476-3366ccadb7c8</t>
+  </si>
+  <si>
+    <t>bi78-1cf0aec3-3ac1-42ce-a450-58f38eee7cd9</t>
+  </si>
+  <si>
+    <t>bi79-09b02e27-9552-4040-ab40-8fbe24dfe0a5</t>
+  </si>
+  <si>
+    <t>bi80-b35418f6-abe3-4eb7-8d78-852210a37841</t>
+  </si>
+  <si>
+    <t>bi81-c423bad5-b3fe-40f7-be39-e673c9c21382</t>
+  </si>
+  <si>
+    <t>bi82-840f2d26-dad4-4d37-aeb3-3c0b7e24302a</t>
+  </si>
+  <si>
+    <t>bi83-a432302e-09e3-4985-b12b-b4b0df161c46</t>
+  </si>
+  <si>
+    <t>bi84-fb4320f2-378e-4bf1-a9b1-dd862ebe83cb</t>
+  </si>
+  <si>
+    <t>bi85-ed50ea6f-b6a3-4967-9e4b-0eb2c45b1160</t>
+  </si>
+  <si>
+    <t>bi86-7e83101a-915d-41b3-b8de-1794ea7b7d01</t>
+  </si>
+  <si>
+    <t>bi87-0162cc20-e206-4a33-bfe5-e6d75a15434f</t>
+  </si>
+  <si>
+    <t>bi88-c8de86c0-3519-4f12-81c5-2a0dcf3ef6a4</t>
+  </si>
+  <si>
+    <t>bi89-fda9a985-48b4-404d-b4c7-582c89e4f41b</t>
+  </si>
+  <si>
+    <t>bi90-99512b01-f25f-4bed-99d6-e61b87051ac2</t>
+  </si>
+  <si>
+    <t>bi91-2757a7d8-4dc8-430a-aebb-458b527ed969</t>
+  </si>
+  <si>
+    <t>bi92-6bb85281-01ba-439e-bd4f-8ba0bde9da70</t>
+  </si>
+  <si>
+    <t>bi93-2fc4f488-f02d-495f-88f2-656e657c4ec4</t>
+  </si>
+  <si>
+    <t>bi94-18adb46a-0ff6-4400-b61a-cbe6785f464a</t>
+  </si>
+  <si>
+    <t>bi95-1ecbd717-351a-4b3a-a14f-cdb17f452b17</t>
+  </si>
+  <si>
+    <t>bi96-06f893ab-8531-41b7-b8b5-4ccea610b004</t>
+  </si>
+  <si>
+    <t>bi97-093d9430-35c0-4cc7-a6e8-44f825c0d2ea</t>
+  </si>
+  <si>
+    <t>bi98-17781840-5d1f-4b45-b251-2804994839b5</t>
+  </si>
+  <si>
+    <t>bi99-6ce34925-0cce-4165-8589-6638d99f67ba</t>
   </si>
 </sst>
 </file>
@@ -2149,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3122,7 +3125,7 @@
   <dimension ref="A3:P48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N32" activeCellId="1" sqref="C44:E48 N32"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3146,10 +3149,10 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D3" s="8" t="s">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>502</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -4077,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4248,7 +4251,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5462,13 +5465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="3" bestFit="1" customWidth="1"/>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>211</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>213</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>215</v>
@@ -5574,7 +5577,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>217</v>
@@ -5595,7 +5598,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>219</v>
@@ -5616,7 +5619,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>221</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>223</v>
@@ -5658,7 +5661,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>225</v>
@@ -5679,7 +5682,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>227</v>
@@ -5700,7 +5703,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>229</v>
@@ -5721,7 +5724,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>231</v>
@@ -5742,7 +5745,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>233</v>
@@ -5763,7 +5766,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>235</v>
@@ -5784,7 +5787,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>237</v>
@@ -5805,7 +5808,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>239</v>
@@ -5826,7 +5829,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>241</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>243</v>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>245</v>
@@ -5889,7 +5892,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>247</v>
@@ -5910,7 +5913,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>249</v>
@@ -5931,7 +5934,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>251</v>
@@ -5952,7 +5955,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>253</v>
@@ -5973,7 +5976,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>255</v>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>257</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>259</v>
@@ -6036,7 +6039,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>261</v>
@@ -6057,7 +6060,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>263</v>
@@ -6078,7 +6081,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>265</v>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>267</v>
@@ -6120,7 +6123,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>269</v>
@@ -6141,7 +6144,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>271</v>
@@ -6162,7 +6165,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>273</v>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>275</v>
@@ -6204,7 +6207,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>277</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>279</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>281</v>
@@ -6267,7 +6270,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>283</v>
@@ -6288,7 +6291,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>285</v>
@@ -6309,7 +6312,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>287</v>
@@ -6330,7 +6333,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>289</v>
@@ -6351,7 +6354,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>291</v>
@@ -6372,7 +6375,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>293</v>
@@ -6393,7 +6396,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>295</v>
@@ -6414,7 +6417,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>297</v>
@@ -6435,7 +6438,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>299</v>
@@ -6456,7 +6459,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>301</v>
@@ -6477,7 +6480,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>303</v>
@@ -6498,7 +6501,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>305</v>
@@ -6519,7 +6522,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>307</v>
@@ -6540,7 +6543,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>309</v>
@@ -6561,7 +6564,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>311</v>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>313</v>
@@ -6603,7 +6606,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>315</v>
@@ -6624,7 +6627,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>203</v>
@@ -6645,7 +6648,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>317</v>
@@ -6666,7 +6669,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>319</v>
@@ -6687,7 +6690,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>321</v>
@@ -6708,7 +6711,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>323</v>
@@ -6729,7 +6732,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>325</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>327</v>
@@ -6771,7 +6774,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>329</v>
@@ -6792,7 +6795,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>331</v>
@@ -6813,7 +6816,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>333</v>
@@ -6834,7 +6837,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>335</v>
@@ -6855,7 +6858,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>337</v>
@@ -6876,7 +6879,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>339</v>
@@ -6897,7 +6900,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>341</v>
@@ -6918,7 +6921,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>205</v>
@@ -6939,7 +6942,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>209</v>
@@ -6960,7 +6963,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>343</v>
@@ -6981,7 +6984,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>345</v>
@@ -7002,7 +7005,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>347</v>
@@ -7023,7 +7026,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>349</v>
@@ -7044,7 +7047,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>351</v>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>353</v>
@@ -7086,7 +7089,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>355</v>
@@ -7107,7 +7110,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>357</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>359</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>361</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>363</v>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>365</v>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>367</v>
@@ -7233,7 +7236,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>369</v>
@@ -7254,7 +7257,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>371</v>
@@ -7275,7 +7278,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>373</v>
@@ -7296,7 +7299,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>375</v>
@@ -7317,7 +7320,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>377</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>45</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>380</v>
@@ -7380,7 +7383,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>382</v>
@@ -7401,7 +7404,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>384</v>
@@ -7422,7 +7425,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>386</v>
@@ -7443,7 +7446,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>388</v>
@@ -7464,7 +7467,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>390</v>
@@ -7485,7 +7488,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>392</v>
@@ -7506,7 +7509,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>394</v>
@@ -7527,7 +7530,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>207</v>
@@ -7548,7 +7551,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>396</v>
@@ -7569,7 +7572,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>398</v>
@@ -7590,7 +7593,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>400</v>
